--- a/Simulation/Simulation/PIDChart.xlsx
+++ b/Simulation/Simulation/PIDChart.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="output" localSheetId="0">Sheet1!$A$1:$B$102</definedName>
+    <definedName name="output" localSheetId="0">Sheet1!$A$1:$C$63</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -156,630 +156,366 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$102</c:f>
+              <c:f>Sheet1!$A$1:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>479031</c:v>
+                  <c:v>250100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>488804</c:v>
+                  <c:v>450200000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>508356</c:v>
+                  <c:v>650300000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>527908</c:v>
+                  <c:v>850400000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>557236</c:v>
+                  <c:v>1450500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>625669</c:v>
+                  <c:v>1650600000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>763025</c:v>
+                  <c:v>1850700000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1025455</c:v>
+                  <c:v>2450800000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1651136</c:v>
+                  <c:v>2650900000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2714582</c:v>
+                  <c:v>3251000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19085976</c:v>
+                  <c:v>3451100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27316713</c:v>
+                  <c:v>4051200000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30947211</c:v>
+                  <c:v>4251300000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32763229</c:v>
+                  <c:v>4851400000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33676119</c:v>
+                  <c:v>6651500000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34135591</c:v>
+                  <c:v>12051600000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34587686</c:v>
+                  <c:v>12251700000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35508332</c:v>
+                  <c:v>12851800000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35958644</c:v>
+                  <c:v>14651900000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36864277</c:v>
+                  <c:v>20052000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53375782</c:v>
+                  <c:v>36252100000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61837068</c:v>
+                  <c:v>36452200000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66061359</c:v>
+                  <c:v>37052300000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>68176197</c:v>
+                  <c:v>38852400000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>69236980</c:v>
+                  <c:v>44252500000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69764884</c:v>
+                  <c:v>60452600000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70296516</c:v>
+                  <c:v>60652700000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>71356042</c:v>
+                  <c:v>61252800000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>71896041</c:v>
+                  <c:v>63052900000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>72956963</c:v>
+                  <c:v>68453000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>89908962</c:v>
+                  <c:v>84653100000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>98374854</c:v>
+                  <c:v>84853200000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>102623009</c:v>
+                  <c:v>85453300000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>104767801</c:v>
+                  <c:v>87253400000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>105819864</c:v>
+                  <c:v>92653500000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>106347438</c:v>
+                  <c:v>108853600000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>106889821</c:v>
+                  <c:v>109053700000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>107937140</c:v>
+                  <c:v>109653800000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>108472270</c:v>
+                  <c:v>111453900000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>109533182</c:v>
+                  <c:v>116854000000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>126575667</c:v>
+                  <c:v>133054100000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>135088820</c:v>
+                  <c:v>133254200000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>139357285</c:v>
+                  <c:v>133854300000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>139357285</c:v>
+                  <c:v>135654400000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>140426597</c:v>
+                  <c:v>141054500000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>140967058</c:v>
+                  <c:v>157254600000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>141231009</c:v>
+                  <c:v>157454700000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>141367877</c:v>
+                  <c:v>158054800000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>141436310</c:v>
+                  <c:v>159854900000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>141475414</c:v>
+                  <c:v>165255000000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>141494969</c:v>
+                  <c:v>181455100000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>141524294</c:v>
+                  <c:v>181655200000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>141593663</c:v>
+                  <c:v>182255300000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>141723536</c:v>
+                  <c:v>184055400000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>141987490</c:v>
+                  <c:v>189455500000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>142525174</c:v>
+                  <c:v>205655600000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>143605446</c:v>
+                  <c:v>205855700000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>144676368</c:v>
+                  <c:v>206455800000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>161841702</c:v>
+                  <c:v>208255900000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>170508605</c:v>
+                  <c:v>213656000000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>174842161</c:v>
+                  <c:v>229856100000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>177033678</c:v>
+                  <c:v>278456200000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>178099828</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>178636319</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>179176325</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>180245640</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>180787041</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>181846581</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>200870363</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>211532777</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>215825156</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>215834935</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>216913206</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>217453257</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>217723462</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>217848331</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>217926543</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>217965644</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>217985200</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>218019316</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>218084372</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>218213552</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>218500769</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>219124221</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>220193533</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>237354053</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>237359060</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>241587749</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>243729247</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>244784993</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>245315354</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>245585542</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>245720635</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>245785680</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>245820711</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>245840719</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>245875743</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>245940788</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>246075882</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>246341065</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>246871433</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>247932168</c:v>
+                  <c:v>424256300000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$102</c:f>
+              <c:f>Sheet1!$B$11:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>1681</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1731</c:v>
+                  <c:v>3.33277787035494E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1881</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1929</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2017</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2053</c:v>
+                  <c:v>-3.7036351178681799E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2053</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2053</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2052</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2050</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2030</c:v>
+                  <c:v>-2.4691205609841901E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1933</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2080</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2057</c:v>
+                  <c:v>-2.4691205609841901E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2051</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2051</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2050</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2030</c:v>
+                  <c:v>-2.4691205609841901E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1933</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2080</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2057</c:v>
+                  <c:v>-1.23456028049209E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2051</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2051</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2050</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2030</c:v>
+                  <c:v>-1.23456028049209E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1933</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2080</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2060</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2057</c:v>
+                  <c:v>-1.23456028049209E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2055</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2051</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2051</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2050</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2030</c:v>
+                  <c:v>-1.23456028049209E-5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1933</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2227</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2113</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1733</c:v>
+                  <c:v>-1.23456028049209E-5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3533</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2533</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1621</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2021</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2021</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2021</c:v>
+                  <c:v>-8.2304357398441507E-6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2056</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2054</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2122</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1933</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2080</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2060</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2057</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2055</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2050</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2122</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1933</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2227</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2113</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1733</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3533</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2533</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1525</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2066</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1882</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2307</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2174</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1454</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3522</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2046</c:v>
+                  <c:v>-5.4869646865811402E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,318 +561,201 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$B$102</c15:sqref>
+                          <c15:sqref>Sheet1!$A$1:$A$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="102"/>
+                      <c:ptCount val="63"/>
                       <c:pt idx="0">
-                        <c:v>479031</c:v>
+                        <c:v>250100000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>488804</c:v>
+                        <c:v>450200000</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>508356</c:v>
+                        <c:v>650300000</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>527908</c:v>
+                        <c:v>850400000</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>557236</c:v>
+                        <c:v>1450500000</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>625669</c:v>
+                        <c:v>1650600000</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>763025</c:v>
+                        <c:v>1850700000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1025455</c:v>
+                        <c:v>2450800000</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1651136</c:v>
+                        <c:v>2650900000</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2714582</c:v>
+                        <c:v>3251000000</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>19085976</c:v>
+                        <c:v>3451100000</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>27316713</c:v>
+                        <c:v>4051200000</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>30947211</c:v>
+                        <c:v>4251300000</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>32763229</c:v>
+                        <c:v>4851400000</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>33676119</c:v>
+                        <c:v>6651500000</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>34135591</c:v>
+                        <c:v>12051600000</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>34587686</c:v>
+                        <c:v>12251700000</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>35508332</c:v>
+                        <c:v>12851800000</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>35958644</c:v>
+                        <c:v>14651900000</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>36864277</c:v>
+                        <c:v>20052000000</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>53375782</c:v>
+                        <c:v>36252100000</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>61837068</c:v>
+                        <c:v>36452200000</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>66061359</c:v>
+                        <c:v>37052300000</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>68176197</c:v>
+                        <c:v>38852400000</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>69236980</c:v>
+                        <c:v>44252500000</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>69764884</c:v>
+                        <c:v>60452600000</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>70296516</c:v>
+                        <c:v>60652700000</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>71356042</c:v>
+                        <c:v>61252800000</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>71896041</c:v>
+                        <c:v>63052900000</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>72956963</c:v>
+                        <c:v>68453000000</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>89908962</c:v>
+                        <c:v>84653100000</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>98374854</c:v>
+                        <c:v>84853200000</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>102623009</c:v>
+                        <c:v>85453300000</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>104767801</c:v>
+                        <c:v>87253400000</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>105819864</c:v>
+                        <c:v>92653500000</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>106347438</c:v>
+                        <c:v>108853600000</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>106889821</c:v>
+                        <c:v>109053700000</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>107937140</c:v>
+                        <c:v>109653800000</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>108472270</c:v>
+                        <c:v>111453900000</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>109533182</c:v>
+                        <c:v>116854000000</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>126575667</c:v>
+                        <c:v>133054100000</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>135088820</c:v>
+                        <c:v>133254200000</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>139357285</c:v>
+                        <c:v>133854300000</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>139357285</c:v>
+                        <c:v>135654400000</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>140426597</c:v>
+                        <c:v>141054500000</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>140967058</c:v>
+                        <c:v>157254600000</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>141231009</c:v>
+                        <c:v>157454700000</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>141367877</c:v>
+                        <c:v>158054800000</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>141436310</c:v>
+                        <c:v>159854900000</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>141475414</c:v>
+                        <c:v>165255000000</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>141494969</c:v>
+                        <c:v>181455100000</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>141524294</c:v>
+                        <c:v>181655200000</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>141593663</c:v>
+                        <c:v>182255300000</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>141723536</c:v>
+                        <c:v>184055400000</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>141987490</c:v>
+                        <c:v>189455500000</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>142525174</c:v>
+                        <c:v>205655600000</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>143605446</c:v>
+                        <c:v>205855700000</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>144676368</c:v>
+                        <c:v>206455800000</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>161841702</c:v>
+                        <c:v>208255900000</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>170508605</c:v>
+                        <c:v>213656000000</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>174842161</c:v>
+                        <c:v>229856100000</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>177033678</c:v>
+                        <c:v>278456200000</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>178099828</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>178636319</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>179176325</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>180245640</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>180787041</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>181846581</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>200870363</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>211532777</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>215825156</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>215834935</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>216913206</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>217453257</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>217723462</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>217848331</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>217926543</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>217965644</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>217985200</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>218019316</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>218084372</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>218213552</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>218500769</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>219124221</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>220193533</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>237354053</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>237359060</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>241587749</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>243729247</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>244784993</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>245315354</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>245585542</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>245720635</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>245785680</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>245820711</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>245840719</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>245875743</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>245940788</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>246075882</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>246341065</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>246871433</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>247932168</c:v>
+                        <c:v>424256300000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1146,318 +765,201 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$B$102</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$B$63</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="102"/>
+                      <c:ptCount val="63"/>
                       <c:pt idx="0">
-                        <c:v>479031</c:v>
+                        <c:v>9.5961615353858404E-3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>488804</c:v>
+                        <c:v>-2.9985007496251799E-3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>508356</c:v>
+                        <c:v>1.9990004997501201E-3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>527908</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>557236</c:v>
+                        <c:v>6.66555574070988E-4</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>625669</c:v>
+                        <c:v>9.99500249875062E-4</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>763025</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1025455</c:v>
+                        <c:v>3.33277787035494E-4</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1651136</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2714582</c:v>
+                        <c:v>3.33277787035494E-4</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>19085976</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>27316713</c:v>
+                        <c:v>3.33277787035494E-4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>30947211</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>32763229</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>33676119</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>34135591</c:v>
+                        <c:v>-3.7036351178681799E-5</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>34587686</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>35508332</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>35958644</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>36864277</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>53375782</c:v>
+                        <c:v>-2.4691205609841901E-5</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>61837068</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>66061359</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>68176197</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>69236980</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>69764884</c:v>
+                        <c:v>-2.4691205609841901E-5</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>70296516</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>71356042</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>71896041</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>72956963</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>89908962</c:v>
+                        <c:v>-2.4691205609841901E-5</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>98374854</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>102623009</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>104767801</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>105819864</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>106347438</c:v>
+                        <c:v>-1.23456028049209E-5</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>106889821</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>107937140</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>108472270</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>109533182</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>126575667</c:v>
+                        <c:v>-1.23456028049209E-5</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>135088820</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>139357285</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>139357285</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>140426597</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>140967058</c:v>
+                        <c:v>-1.23456028049209E-5</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>141231009</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>141367877</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>141436310</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>141475414</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>141494969</c:v>
+                        <c:v>-1.23456028049209E-5</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>141524294</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>141593663</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>141723536</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>141987490</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>142525174</c:v>
+                        <c:v>-1.23456028049209E-5</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>143605446</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>144676368</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>161841702</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>170508605</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>174842161</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>177033678</c:v>
+                        <c:v>-8.2304357398441507E-6</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>178099828</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>178636319</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>179176325</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>180245640</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>180787041</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>181846581</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>200870363</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>211532777</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>215825156</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>215834935</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>216913206</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>217453257</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>217723462</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>217848331</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>217926543</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>217965644</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>217985200</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>218019316</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>218084372</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>218213552</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>218500769</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>219124221</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>220193533</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>237354053</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>237359060</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>241587749</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>243729247</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>244784993</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>245315354</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>245585542</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>245720635</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>245785680</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>245820711</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>245840719</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>245875743</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>245940788</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>246075882</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>246341065</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>246871433</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>247932168</c:v>
+                        <c:v>-5.4869646865811402E-6</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2216,13 +1718,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -2554,832 +2056,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1681</v>
+        <v>250100000</v>
       </c>
       <c r="B1">
-        <v>479031</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9.5961615353858404E-3</v>
+      </c>
+      <c r="C1">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1731</v>
+        <v>450200000</v>
       </c>
       <c r="B2">
-        <v>488804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.9985007496251799E-3</v>
+      </c>
+      <c r="C2">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1881</v>
+        <v>650300000</v>
       </c>
       <c r="B3">
-        <v>508356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.9990004997501201E-3</v>
+      </c>
+      <c r="C3">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1929</v>
+        <v>850400000</v>
       </c>
       <c r="B4">
-        <v>527908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2017</v>
+        <v>1450500000</v>
       </c>
       <c r="B5">
-        <v>557236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.66555574070988E-4</v>
+      </c>
+      <c r="C5">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2053</v>
+        <v>1650600000</v>
       </c>
       <c r="B6">
-        <v>625669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9.99500249875062E-4</v>
+      </c>
+      <c r="C6">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2053</v>
+        <v>1850700000</v>
       </c>
       <c r="B7">
-        <v>763025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2053</v>
+        <v>2450800000</v>
       </c>
       <c r="B8">
-        <v>1025455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.33277787035494E-4</v>
+      </c>
+      <c r="C8">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2052</v>
+        <v>2650900000</v>
       </c>
       <c r="B9">
-        <v>1651136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2050</v>
+        <v>3251000000</v>
       </c>
       <c r="B10">
-        <v>2714582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.33277787035494E-4</v>
+      </c>
+      <c r="C10">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2030</v>
+        <v>3451100000</v>
       </c>
       <c r="B11">
-        <v>19085976</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2122</v>
+        <v>4051200000</v>
       </c>
       <c r="B12">
-        <v>27316713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.33277787035494E-4</v>
+      </c>
+      <c r="C12">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1933</v>
+        <v>4251300000</v>
       </c>
       <c r="B13">
-        <v>30947211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2080</v>
+        <v>4851400000</v>
       </c>
       <c r="B14">
-        <v>32763229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2060</v>
+        <v>6651500000</v>
       </c>
       <c r="B15">
-        <v>33676119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2057</v>
+        <v>12051600000</v>
       </c>
       <c r="B16">
-        <v>34135591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-3.7036351178681799E-5</v>
+      </c>
+      <c r="C16">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2055</v>
+        <v>12251700000</v>
       </c>
       <c r="B17">
-        <v>34587686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2051</v>
+        <v>12851800000</v>
       </c>
       <c r="B18">
-        <v>35508332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2051</v>
+        <v>14651900000</v>
       </c>
       <c r="B19">
-        <v>35958644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2050</v>
+        <v>20052000000</v>
       </c>
       <c r="B20">
-        <v>36864277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2030</v>
+        <v>36252100000</v>
       </c>
       <c r="B21">
-        <v>53375782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.4691205609841901E-5</v>
+      </c>
+      <c r="C21">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2122</v>
+        <v>36452200000</v>
       </c>
       <c r="B22">
-        <v>61837068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1933</v>
+        <v>37052300000</v>
       </c>
       <c r="B23">
-        <v>66061359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2080</v>
+        <v>38852400000</v>
       </c>
       <c r="B24">
-        <v>68176197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2060</v>
+        <v>44252500000</v>
       </c>
       <c r="B25">
-        <v>69236980</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2057</v>
+        <v>60452600000</v>
       </c>
       <c r="B26">
-        <v>69764884</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.4691205609841901E-5</v>
+      </c>
+      <c r="C26">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2055</v>
+        <v>60652700000</v>
       </c>
       <c r="B27">
-        <v>70296516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2051</v>
+        <v>61252800000</v>
       </c>
       <c r="B28">
-        <v>71356042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2051</v>
+        <v>63052900000</v>
       </c>
       <c r="B29">
-        <v>71896041</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2050</v>
+        <v>68453000000</v>
       </c>
       <c r="B30">
-        <v>72956963</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2030</v>
+        <v>84653100000</v>
       </c>
       <c r="B31">
-        <v>89908962</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.4691205609841901E-5</v>
+      </c>
+      <c r="C31">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2122</v>
+        <v>84853200000</v>
       </c>
       <c r="B32">
-        <v>98374854</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1933</v>
+        <v>85453300000</v>
       </c>
       <c r="B33">
-        <v>102623009</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2080</v>
+        <v>87253400000</v>
       </c>
       <c r="B34">
-        <v>104767801</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2060</v>
+        <v>92653500000</v>
       </c>
       <c r="B35">
-        <v>105819864</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2057</v>
+        <v>108853600000</v>
       </c>
       <c r="B36">
-        <v>106347438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C36">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2055</v>
+        <v>109053700000</v>
       </c>
       <c r="B37">
-        <v>106889821</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2051</v>
+        <v>109653800000</v>
       </c>
       <c r="B38">
-        <v>107937140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2051</v>
+        <v>111453900000</v>
       </c>
       <c r="B39">
-        <v>108472270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2050</v>
+        <v>116854000000</v>
       </c>
       <c r="B40">
-        <v>109533182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2030</v>
+        <v>133054100000</v>
       </c>
       <c r="B41">
-        <v>126575667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C41">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2122</v>
+        <v>133254200000</v>
       </c>
       <c r="B42">
-        <v>135088820</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1933</v>
+        <v>133854300000</v>
       </c>
       <c r="B43">
-        <v>139357285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2227</v>
+        <v>135654400000</v>
       </c>
       <c r="B44">
-        <v>139357285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2113</v>
+        <v>141054500000</v>
       </c>
       <c r="B45">
-        <v>140426597</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1733</v>
+        <v>157254600000</v>
       </c>
       <c r="B46">
-        <v>140967058</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C46">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>3533</v>
+        <v>157454700000</v>
       </c>
       <c r="B47">
-        <v>141231009</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2533</v>
+        <v>158054800000</v>
       </c>
       <c r="B48">
-        <v>141367877</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1621</v>
+        <v>159854900000</v>
       </c>
       <c r="B49">
-        <v>141436310</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2021</v>
+        <v>165255000000</v>
       </c>
       <c r="B50">
-        <v>141475414</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2021</v>
+        <v>181455100000</v>
       </c>
       <c r="B51">
-        <v>141494969</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C51">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2021</v>
+        <v>181655200000</v>
       </c>
       <c r="B52">
-        <v>141524294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2057</v>
+        <v>182255300000</v>
       </c>
       <c r="B53">
-        <v>141593663</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2057</v>
+        <v>184055400000</v>
       </c>
       <c r="B54">
-        <v>141723536</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2056</v>
+        <v>189455500000</v>
       </c>
       <c r="B55">
-        <v>141987490</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2054</v>
+        <v>205655600000</v>
       </c>
       <c r="B56">
-        <v>142525174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C56">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2051</v>
+        <v>205855700000</v>
       </c>
       <c r="B57">
-        <v>143605446</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2050</v>
+        <v>206455800000</v>
       </c>
       <c r="B58">
-        <v>144676368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2030</v>
+        <v>208255900000</v>
       </c>
       <c r="B59">
-        <v>161841702</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2122</v>
+        <v>213656000000</v>
       </c>
       <c r="B60">
-        <v>170508605</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1933</v>
+        <v>229856100000</v>
       </c>
       <c r="B61">
-        <v>174842161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2080</v>
+        <v>278456200000</v>
       </c>
       <c r="B62">
-        <v>177033678</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-8.2304357398441507E-6</v>
+      </c>
+      <c r="C62">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2060</v>
+        <v>424256300000</v>
       </c>
       <c r="B63">
-        <v>178099828</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2057</v>
-      </c>
-      <c r="B64">
-        <v>178636319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2055</v>
-      </c>
-      <c r="B65">
-        <v>179176325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2051</v>
-      </c>
-      <c r="B66">
-        <v>180245640</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2051</v>
-      </c>
-      <c r="B67">
-        <v>180787041</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2050</v>
-      </c>
-      <c r="B68">
-        <v>181846581</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2030</v>
-      </c>
-      <c r="B69">
-        <v>200870363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>2122</v>
-      </c>
-      <c r="B70">
-        <v>211532777</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1933</v>
-      </c>
-      <c r="B71">
-        <v>215825156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>2227</v>
-      </c>
-      <c r="B72">
-        <v>215834935</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2113</v>
-      </c>
-      <c r="B73">
-        <v>216913206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1733</v>
-      </c>
-      <c r="B74">
-        <v>217453257</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>3533</v>
-      </c>
-      <c r="B75">
-        <v>217723462</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>2533</v>
-      </c>
-      <c r="B76">
-        <v>217848331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1525</v>
-      </c>
-      <c r="B77">
-        <v>217926543</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>2025</v>
-      </c>
-      <c r="B78">
-        <v>217965644</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>2025</v>
-      </c>
-      <c r="B79">
-        <v>217985200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>2025</v>
-      </c>
-      <c r="B80">
-        <v>218019316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>2025</v>
-      </c>
-      <c r="B81">
-        <v>218084372</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>2044</v>
-      </c>
-      <c r="B82">
-        <v>218213552</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2044</v>
-      </c>
-      <c r="B83">
-        <v>218500769</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>2045</v>
-      </c>
-      <c r="B84">
-        <v>219124221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>2046</v>
-      </c>
-      <c r="B85">
-        <v>220193533</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>2066</v>
-      </c>
-      <c r="B86">
-        <v>237354053</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1882</v>
-      </c>
-      <c r="B87">
-        <v>237359060</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>2307</v>
-      </c>
-      <c r="B88">
-        <v>241587749</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1976</v>
-      </c>
-      <c r="B89">
-        <v>243729247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>2022</v>
-      </c>
-      <c r="B90">
-        <v>244784993</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>2174</v>
-      </c>
-      <c r="B91">
-        <v>245315354</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1454</v>
-      </c>
-      <c r="B92">
-        <v>245585542</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>3522</v>
-      </c>
-      <c r="B93">
-        <v>245720635</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>690</v>
-      </c>
-      <c r="B94">
-        <v>245785680</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>2040</v>
-      </c>
-      <c r="B95">
-        <v>245820711</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>2040</v>
-      </c>
-      <c r="B96">
-        <v>245840719</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>2040</v>
-      </c>
-      <c r="B97">
-        <v>245875743</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>2040</v>
-      </c>
-      <c r="B98">
-        <v>245940788</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>2040</v>
-      </c>
-      <c r="B99">
-        <v>246075882</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>2041</v>
-      </c>
-      <c r="B100">
-        <v>246341065</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>2043</v>
-      </c>
-      <c r="B101">
-        <v>246871433</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>2046</v>
-      </c>
-      <c r="B102">
-        <v>247932168</v>
+        <v>-5.4869646865811402E-6</v>
+      </c>
+      <c r="C63">
+        <v>2614</v>
       </c>
     </row>
   </sheetData>

--- a/Simulation/Simulation/PIDChart.xlsx
+++ b/Simulation/Simulation/PIDChart.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="output" localSheetId="0">Sheet1!$A$1:$C$63</definedName>
+    <definedName name="output" localSheetId="0">Sheet1!$A$1:$C$151</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -136,394 +136,964 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$63</c:f>
+              <c:f>Sheet1!$A$1:$A$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>250100000</c:v>
+                  <c:v>10100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>450200000</c:v>
+                  <c:v>210200000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>650300000</c:v>
+                  <c:v>410300000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>850400000</c:v>
+                  <c:v>610400000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1450500000</c:v>
+                  <c:v>1210500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1650600000</c:v>
+                  <c:v>3010600000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1850700000</c:v>
+                  <c:v>3210700000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2450800000</c:v>
+                  <c:v>3810800000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2650900000</c:v>
+                  <c:v>5610900000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3251000000</c:v>
+                  <c:v>5811000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3451100000</c:v>
+                  <c:v>6411100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4051200000</c:v>
+                  <c:v>8211200000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4251300000</c:v>
+                  <c:v>8411300000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4851400000</c:v>
+                  <c:v>9011400000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6651500000</c:v>
+                  <c:v>10811500000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12051600000</c:v>
+                  <c:v>11011600000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12251700000</c:v>
+                  <c:v>11611700000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12851800000</c:v>
+                  <c:v>13411800000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14651900000</c:v>
+                  <c:v>18811900000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20052000000</c:v>
+                  <c:v>19012000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36252100000</c:v>
+                  <c:v>19612100000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36452200000</c:v>
+                  <c:v>21412200000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37052300000</c:v>
+                  <c:v>26812300000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38852400000</c:v>
+                  <c:v>27012400000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44252500000</c:v>
+                  <c:v>27612500000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60452600000</c:v>
+                  <c:v>29412600000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60652700000</c:v>
+                  <c:v>34812700000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>61252800000</c:v>
+                  <c:v>35012800000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63052900000</c:v>
+                  <c:v>35612900000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68453000000</c:v>
+                  <c:v>37413000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>84653100000</c:v>
+                  <c:v>42813100000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>84853200000</c:v>
+                  <c:v>43013200000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85453300000</c:v>
+                  <c:v>43613300000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>87253400000</c:v>
+                  <c:v>45413400000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>92653500000</c:v>
+                  <c:v>50813500000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>108853600000</c:v>
+                  <c:v>51013600000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>109053700000</c:v>
+                  <c:v>51613700000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>109653800000</c:v>
+                  <c:v>53413800000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>111453900000</c:v>
+                  <c:v>58813900000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>116854000000</c:v>
+                  <c:v>59014000000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>133054100000</c:v>
+                  <c:v>59614100000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>133254200000</c:v>
+                  <c:v>61414200000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>133854300000</c:v>
+                  <c:v>66814300000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>135654400000</c:v>
+                  <c:v>67014400000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>141054500000</c:v>
+                  <c:v>67614500000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>157254600000</c:v>
+                  <c:v>69414600000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>157454700000</c:v>
+                  <c:v>74814700000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>158054800000</c:v>
+                  <c:v>75014800000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>159854900000</c:v>
+                  <c:v>75614900000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>165255000000</c:v>
+                  <c:v>77415000000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>181455100000</c:v>
+                  <c:v>82815100000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>181655200000</c:v>
+                  <c:v>83015200000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>182255300000</c:v>
+                  <c:v>83615300000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>184055400000</c:v>
+                  <c:v>85415400000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>189455500000</c:v>
+                  <c:v>90815500000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>205655600000</c:v>
+                  <c:v>91015600000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>205855700000</c:v>
+                  <c:v>91615700000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>206455800000</c:v>
+                  <c:v>93415800000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>208255900000</c:v>
+                  <c:v>98815900000</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>213656000000</c:v>
+                  <c:v>99016000000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>229856100000</c:v>
+                  <c:v>99616100000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>278456200000</c:v>
+                  <c:v>101416200000</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>424256300000</c:v>
+                  <c:v>106816300000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>107016400000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>107616500000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>109416600000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>114816700000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>115016800000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>115616900000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>117417000000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>122817100000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>123017200000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>123617300000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>125417400000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>130817500000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>147017600000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>147217700000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>147817800000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>149617900000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>155018000000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>171218100000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171418200000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>172018300000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>173818400000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>179218500000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>195418600000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>195618700000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>196218800000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>198018900000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>203419000000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>219619100000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>219819200000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>220419300000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>222219400000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>227619500000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>243819600000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>244019700000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>244619800000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>246419900000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>251820000000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>268020100000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>268220200000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>268820300000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>270620400000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>276020500000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>292220600000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>292420700000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>293020800000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>294820900000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>300221000000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>316421100000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>316621200000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>317221300000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>319021400000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>324421500000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>340621600000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>340821700000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>341421800000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>343221900000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>348622000000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>364822100000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>365022200000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>365622300000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>367422400000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>372822500000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>389022600000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>389222700000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>389822800000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>391622900000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>397023000000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>413223100000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>413423200000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>414023300000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>415823400000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>421223500000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>437423600000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>437623700000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>438223800000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>440023900000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>445424000000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>461624100000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>461824200000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>462424300000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>464224400000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>469624500000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>485824600000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>534424700000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>680224800000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1117624900000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2429825000000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6366425100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$B$63</c:f>
+              <c:f>Sheet1!$C$1:$C$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.33277787035494E-4</c:v>
+                  <c:v>2562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2680</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.7036351178681799E-5</c:v>
+                  <c:v>2650</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2653</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2646</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2649</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.4691205609841901E-5</c:v>
+                  <c:v>2649</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2643</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2646</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2646</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2640</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.4691205609841901E-5</c:v>
+                  <c:v>2642</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2642</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2642</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2638</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2640</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.4691205609841901E-5</c:v>
+                  <c:v>2640</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>2640</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>2636</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>2638</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>2638</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.23456028049209E-5</c:v>
+                  <c:v>2638</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2634</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>2635</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2635</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2635</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.23456028049209E-5</c:v>
+                  <c:v>2631</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>2633</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>2631</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.23456028049209E-5</c:v>
+                  <c:v>2632</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>2632</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>2632</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>2630</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>2631</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.23456028049209E-5</c:v>
+                  <c:v>2631</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>2631</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>2629</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>2630</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>2630</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.23456028049209E-5</c:v>
+                  <c:v>2630</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>2628</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>2629</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>2629</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>2629</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>2627</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-8.2304357398441507E-6</c:v>
+                  <c:v>2627</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-5.4869646865811402E-6</c:v>
+                  <c:v>2627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2627</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2624</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2624</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2624</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2624</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2622</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2616</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2614</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2614</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2614</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2597-4681-8595-90C7D5B2D5EE}"/>
+              <c16:uniqueId val="{00000001-2597-4681-8595-90C7D5B2D5EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -535,281 +1105,556 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="426748512"/>
         <c:axId val="426751464"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="none"/>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:xVal>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$1:$A$63</c15:sqref>
+                          <c15:sqref>Sheet1!$A$1:$A$151</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="63"/>
+                      <c:ptCount val="151"/>
                       <c:pt idx="0">
-                        <c:v>250100000</c:v>
+                        <c:v>10100000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>450200000</c:v>
+                        <c:v>210200000</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>650300000</c:v>
+                        <c:v>410300000</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>850400000</c:v>
+                        <c:v>610400000</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1450500000</c:v>
+                        <c:v>1210500000</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1650600000</c:v>
+                        <c:v>3010600000</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1850700000</c:v>
+                        <c:v>3210700000</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2450800000</c:v>
+                        <c:v>3810800000</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2650900000</c:v>
+                        <c:v>5610900000</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>3251000000</c:v>
+                        <c:v>5811000000</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>3451100000</c:v>
+                        <c:v>6411100000</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>4051200000</c:v>
+                        <c:v>8211200000</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>4251300000</c:v>
+                        <c:v>8411300000</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>4851400000</c:v>
+                        <c:v>9011400000</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>6651500000</c:v>
+                        <c:v>10811500000</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>12051600000</c:v>
+                        <c:v>11011600000</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>12251700000</c:v>
+                        <c:v>11611700000</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>12851800000</c:v>
+                        <c:v>13411800000</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>14651900000</c:v>
+                        <c:v>18811900000</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>20052000000</c:v>
+                        <c:v>19012000000</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>36252100000</c:v>
+                        <c:v>19612100000</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>36452200000</c:v>
+                        <c:v>21412200000</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>37052300000</c:v>
+                        <c:v>26812300000</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>38852400000</c:v>
+                        <c:v>27012400000</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>44252500000</c:v>
+                        <c:v>27612500000</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>60452600000</c:v>
+                        <c:v>29412600000</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>60652700000</c:v>
+                        <c:v>34812700000</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>61252800000</c:v>
+                        <c:v>35012800000</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>63052900000</c:v>
+                        <c:v>35612900000</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>68453000000</c:v>
+                        <c:v>37413000000</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>84653100000</c:v>
+                        <c:v>42813100000</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>84853200000</c:v>
+                        <c:v>43013200000</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>85453300000</c:v>
+                        <c:v>43613300000</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>87253400000</c:v>
+                        <c:v>45413400000</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>92653500000</c:v>
+                        <c:v>50813500000</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>108853600000</c:v>
+                        <c:v>51013600000</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>109053700000</c:v>
+                        <c:v>51613700000</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>109653800000</c:v>
+                        <c:v>53413800000</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>111453900000</c:v>
+                        <c:v>58813900000</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>116854000000</c:v>
+                        <c:v>59014000000</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>133054100000</c:v>
+                        <c:v>59614100000</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>133254200000</c:v>
+                        <c:v>61414200000</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>133854300000</c:v>
+                        <c:v>66814300000</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>135654400000</c:v>
+                        <c:v>67014400000</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>141054500000</c:v>
+                        <c:v>67614500000</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>157254600000</c:v>
+                        <c:v>69414600000</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>157454700000</c:v>
+                        <c:v>74814700000</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>158054800000</c:v>
+                        <c:v>75014800000</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>159854900000</c:v>
+                        <c:v>75614900000</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>165255000000</c:v>
+                        <c:v>77415000000</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>181455100000</c:v>
+                        <c:v>82815100000</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>181655200000</c:v>
+                        <c:v>83015200000</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>182255300000</c:v>
+                        <c:v>83615300000</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>184055400000</c:v>
+                        <c:v>85415400000</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>189455500000</c:v>
+                        <c:v>90815500000</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>205655600000</c:v>
+                        <c:v>91015600000</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>205855700000</c:v>
+                        <c:v>91615700000</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>206455800000</c:v>
+                        <c:v>93415800000</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>208255900000</c:v>
+                        <c:v>98815900000</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>213656000000</c:v>
+                        <c:v>99016000000</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>229856100000</c:v>
+                        <c:v>99616100000</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>278456200000</c:v>
+                        <c:v>101416200000</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>424256300000</c:v>
+                        <c:v>106816300000</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>107016400000</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>107616500000</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>109416600000</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>114816700000</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>115016800000</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>115616900000</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>117417000000</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>122817100000</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>123017200000</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>123617300000</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>125417400000</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>130817500000</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>147017600000</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>147217700000</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>147817800000</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>149617900000</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>155018000000</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>171218100000</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>171418200000</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>172018300000</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>173818400000</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>179218500000</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>195418600000</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>195618700000</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>196218800000</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>198018900000</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>203419000000</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>219619100000</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>219819200000</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>220419300000</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>222219400000</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>227619500000</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>243819600000</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>244019700000</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>244619800000</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>246419900000</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>251820000000</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>268020100000</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>268220200000</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>268820300000</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>270620400000</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>276020500000</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>292220600000</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>292420700000</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>293020800000</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>294820900000</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>300221000000</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>316421100000</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>316621200000</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>317221300000</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>319021400000</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>324421500000</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>340621600000</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>340821700000</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>341421800000</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>343221900000</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>348622000000</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>364822100000</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>365022200000</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>365622300000</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>367422400000</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>372822500000</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>389022600000</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>389222700000</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>389822800000</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>391622900000</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>397023000000</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>413223100000</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>413423200000</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>414023300000</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>415823400000</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>421223500000</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>437423600000</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>437623700000</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>438223800000</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>440023900000</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>445424000000</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>461624100000</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>461824200000</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>462424300000</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>464224400000</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>469624500000</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>485824600000</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>534424700000</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>680224800000</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>1117624900000</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>2429825000000</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>6366425100000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:cat>
-                <c:val>
+                </c:xVal>
+                <c:yVal>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$B$63</c15:sqref>
+                          <c15:sqref>Sheet1!$B$11:$B$151</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="63"/>
+                      <c:ptCount val="141"/>
                       <c:pt idx="0">
-                        <c:v>9.5961615353858404E-3</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-2.9985007496251799E-3</c:v>
+                        <c:v>-1.11104938614521E-4</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.9990004997501201E-3</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>6.66555574070988E-4</c:v>
+                        <c:v>-1.11104938614521E-4</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>9.99500249875062E-4</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>3.33277787035494E-4</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0</c:v>
+                        <c:v>-7.4072702357363694E-5</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>3.33277787035494E-4</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>3.33277787035494E-4</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0</c:v>
+                        <c:v>-7.4072702357363694E-5</c:v>
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>0</c:v>
@@ -818,164 +1663,398 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-7.4072702357363694E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-7.4072702357363694E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
                         <c:v>-3.7036351178681799E-5</c:v>
                       </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-3.7036351178681799E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>-3.7036351178681799E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>-3.7036351178681799E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>-3.7036351178681799E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>-3.7036351178681799E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>-3.7036351178681799E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>-3.7036351178681799E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>-3.7036351178681799E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>-3.7036351178681799E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
                         <c:v>-2.4691205609841901E-5</c:v>
                       </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
+                      <c:pt idx="66">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
                         <c:v>-2.4691205609841901E-5</c:v>
                       </c:pt>
-                      <c:pt idx="26">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
+                      <c:pt idx="71">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
                         <c:v>-2.4691205609841901E-5</c:v>
                       </c:pt>
-                      <c:pt idx="31">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
+                      <c:pt idx="76">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
                         <c:v>-1.23456028049209E-5</c:v>
                       </c:pt>
-                      <c:pt idx="36">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
+                      <c:pt idx="81">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
                         <c:v>-1.23456028049209E-5</c:v>
                       </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
+                      <c:pt idx="86">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
                         <c:v>-1.23456028049209E-5</c:v>
                       </c:pt>
-                      <c:pt idx="46">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
+                      <c:pt idx="91">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
                         <c:v>-1.23456028049209E-5</c:v>
                       </c:pt>
-                      <c:pt idx="51">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
+                      <c:pt idx="96">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
                         <c:v>-1.23456028049209E-5</c:v>
                       </c:pt>
-                      <c:pt idx="56">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
+                      <c:pt idx="101">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>-1.23456028049209E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>-1.23456028049209E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>-1.23456028049209E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>-1.23456028049209E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>-1.23456028049209E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>-1.23456028049209E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
                         <c:v>-8.2304357398441507E-6</c:v>
                       </c:pt>
-                      <c:pt idx="62">
-                        <c:v>-5.4869646865811402E-6</c:v>
+                      <c:pt idx="137">
+                        <c:v>-9.6021882015170001E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>-6.40146172806087E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>-6.5538784824052296E-6</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>-6.5538788153767501E-6</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
+                </c:yVal>
+                <c:smooth val="1"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-2597-4681-8595-90C7D5B2D5EE}"/>
+                    <c16:uniqueId val="{00000000-2597-4681-8595-90C7D5B2D5EE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredScatterSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="426748512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1021,11 +2100,8 @@
         </c:txPr>
         <c:crossAx val="426751464"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="426751464"/>
         <c:scaling>
@@ -1080,7 +2156,2152 @@
         </c:txPr>
         <c:crossAx val="426748512"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>10100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>410300000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>610400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1210500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3010600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3210700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3810800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5610900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5811000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6411100000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8211200000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8411300000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9011400000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10811500000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11011600000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11611700000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13411800000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18811900000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19012000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19612100000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21412200000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26812300000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27012400000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27612500000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29412600000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34812700000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35012800000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35612900000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37413000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42813100000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43013200000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43613300000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45413400000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50813500000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51013600000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51613700000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53413800000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58813900000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59014000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59614100000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61414200000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>66814300000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>67014400000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67614500000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>69414600000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>74814700000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>75014800000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75614900000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>77415000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>82815100000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>83015200000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>83615300000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>85415400000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90815500000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91015600000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>91615700000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>93415800000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>98815900000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>99016000000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>99616100000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>101416200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>106816300000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>107016400000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>107616500000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>109416600000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>114816700000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>115016800000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>115616900000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>117417000000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>122817100000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>123017200000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>123617300000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>125417400000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>130817500000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>147017600000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>147217700000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>147817800000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>149617900000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>155018000000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>171218100000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171418200000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>172018300000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>173818400000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>179218500000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>195418600000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>195618700000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>196218800000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>198018900000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>203419000000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>219619100000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>219819200000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>220419300000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>222219400000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>227619500000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>243819600000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>244019700000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>244619800000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>246419900000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>251820000000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>268020100000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>268220200000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>268820300000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>270620400000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>276020500000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>292220600000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>292420700000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>293020800000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>294820900000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>300221000000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>316421100000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>316621200000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>317221300000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>319021400000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>324421500000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>340621600000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>340821700000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>341421800000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>343221900000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>348622000000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>364822100000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>365022200000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>365622300000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>367422400000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>372822500000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>389022600000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>389222700000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>389822800000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>391622900000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>397023000000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>413223100000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>413423200000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>414023300000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>415823400000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>421223500000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>437423600000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>437623700000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>438223800000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>440023900000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>445424000000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>461624100000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>461824200000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>462424300000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>464224400000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>469624500000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>485824600000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>534424700000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>680224800000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1117624900000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2429825000000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6366425100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="141"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.11104938614521E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.11104938614521E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.4072702357363694E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.4072702357363694E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.4072702357363694E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.4072702357363694E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.7036351178681799E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.7036351178681799E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.7036351178681799E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.7036351178681799E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.7036351178681799E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.7036351178681799E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.7036351178681799E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.7036351178681799E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.7036351178681799E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.7036351178681799E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.4691205609841901E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.4691205609841901E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.4691205609841901E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.23456028049209E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.23456028049209E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.23456028049209E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.23456028049209E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.23456028049209E-5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.23456028049209E-5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.23456028049209E-5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.23456028049209E-5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-1.23456028049209E-5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-1.23456028049209E-5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-1.23456028049209E-5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-8.2304357398441507E-6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-9.6021882015170001E-6</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-6.40146172806087E-6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-6.5538784824052296E-6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-6.5538788153767501E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B879-4F66-B591-A53581F59836}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="426748512"/>
+        <c:axId val="426751464"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$1:$A$151</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="151"/>
+                      <c:pt idx="0">
+                        <c:v>10100000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>210200000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>410300000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>610400000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1210500000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3010600000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3210700000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3810800000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5610900000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5811000000</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6411100000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8211200000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8411300000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9011400000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>10811500000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>11011600000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>11611700000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>13411800000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18811900000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19012000000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>19612100000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21412200000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>26812300000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>27012400000</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>27612500000</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>29412600000</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>34812700000</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>35012800000</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>35612900000</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>37413000000</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>42813100000</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43013200000</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>43613300000</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>45413400000</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>50813500000</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>51013600000</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>51613700000</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>53413800000</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>58813900000</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>59014000000</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>59614100000</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>61414200000</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>66814300000</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>67014400000</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>67614500000</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>69414600000</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>74814700000</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>75014800000</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>75614900000</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>77415000000</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>82815100000</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>83015200000</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>83615300000</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>85415400000</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>90815500000</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>91015600000</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>91615700000</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>93415800000</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>98815900000</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>99016000000</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>99616100000</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>101416200000</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>106816300000</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>107016400000</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>107616500000</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>109416600000</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>114816700000</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>115016800000</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>115616900000</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>117417000000</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>122817100000</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>123017200000</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>123617300000</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>125417400000</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>130817500000</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>147017600000</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>147217700000</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>147817800000</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>149617900000</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>155018000000</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>171218100000</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>171418200000</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>172018300000</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>173818400000</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>179218500000</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>195418600000</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>195618700000</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>196218800000</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>198018900000</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>203419000000</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>219619100000</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>219819200000</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>220419300000</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>222219400000</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>227619500000</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>243819600000</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>244019700000</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>244619800000</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>246419900000</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>251820000000</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>268020100000</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>268220200000</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>268820300000</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>270620400000</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>276020500000</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>292220600000</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>292420700000</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>293020800000</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>294820900000</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>300221000000</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>316421100000</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>316621200000</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>317221300000</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>319021400000</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>324421500000</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>340621600000</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>340821700000</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>341421800000</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>343221900000</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>348622000000</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>364822100000</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>365022200000</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>365622300000</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>367422400000</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>372822500000</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>389022600000</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>389222700000</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>389822800000</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>391622900000</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>397023000000</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>413223100000</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>413423200000</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>414023300000</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>415823400000</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>421223500000</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>437423600000</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>437623700000</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>438223800000</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>440023900000</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>445424000000</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>461624100000</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>461824200000</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>462424300000</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>464224400000</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>469624500000</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>485824600000</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>534424700000</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>680224800000</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>1117624900000</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>2429825000000</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>6366425100000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$1:$C$151</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="151"/>
+                      <c:pt idx="0">
+                        <c:v>3102</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2562</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2680</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2654</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2656</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2650</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2653</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2652</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2646</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2649</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2649</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2643</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2646</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2646</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2640</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2642</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2642</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2642</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2638</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2640</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2640</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2640</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2636</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2638</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2638</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2638</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2634</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2635</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2635</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2635</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2631</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2633</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2633</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2633</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2631</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2632</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2632</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2632</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2630</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2631</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2631</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2631</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2629</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2630</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2630</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2630</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2628</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2629</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2629</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2629</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>2627</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>2627</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>2627</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>2627</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>2625</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>2626</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>2626</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>2626</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>2624</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>2625</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>2625</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>2625</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>2623</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>2624</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2624</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>2624</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2622</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2623</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2623</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2623</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>2621</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>2622</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>2622</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>2622</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>2622</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>2620</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>2621</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>2621</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>2621</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>2621</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>2620</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>2620</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>2620</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>2620</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>2620</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>2619</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>2617</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>2618</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>2617</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>2617</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>2617</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>2617</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>2617</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>2617</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>2617</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>2617</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>2617</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>2615</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>2616</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>2615</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>2615</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>2615</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>2615</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>2615</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>2615</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>2615</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>2614</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>2614</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>2614</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>2614</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-B879-4F66-B591-A53581F59836}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="426748512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426751464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="426751464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426748512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1159,6 +4380,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1714,6 +4975,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1726,8 +5503,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1747,6 +5524,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA3815E-FD99-483E-BA55-7FEEC8477DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2056,709 +5871,1677 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>250100000</v>
+        <v>10100000</v>
       </c>
       <c r="B1">
-        <v>9.5961615353858404E-3</v>
+        <v>1.9801980198019799E-2</v>
       </c>
       <c r="C1">
-        <v>3541</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>450200000</v>
+        <v>210200000</v>
       </c>
       <c r="B2">
-        <v>-2.9985007496251799E-3</v>
+        <v>-9.99500249875062E-4</v>
       </c>
       <c r="C2">
-        <v>2052</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>650300000</v>
+        <v>410300000</v>
       </c>
       <c r="B3">
-        <v>1.9990004997501201E-3</v>
+        <v>9.99500249875062E-4</v>
       </c>
       <c r="C3">
-        <v>2703</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>850400000</v>
+        <v>610400000</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2484</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1450500000</v>
+        <v>1210500000</v>
       </c>
       <c r="B5">
-        <v>6.66555574070988E-4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2591</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1650600000</v>
+        <v>3010600000</v>
       </c>
       <c r="B6">
-        <v>9.99500249875062E-4</v>
+        <v>-1.11104938614521E-4</v>
       </c>
       <c r="C6">
-        <v>2676</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1850700000</v>
+        <v>3210700000</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2571</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2450800000</v>
+        <v>3810800000</v>
       </c>
       <c r="B8">
-        <v>3.33277787035494E-4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2625</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2650900000</v>
+        <v>5610900000</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-1.11104938614521E-4</v>
       </c>
       <c r="C9">
-        <v>2589</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3251000000</v>
+        <v>5811000000</v>
       </c>
       <c r="B10">
-        <v>3.33277787035494E-4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2642</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3451100000</v>
+        <v>6411100000</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2606</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4051200000</v>
+        <v>8211200000</v>
       </c>
       <c r="B12">
-        <v>3.33277787035494E-4</v>
+        <v>-1.11104938614521E-4</v>
       </c>
       <c r="C12">
-        <v>2659</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4251300000</v>
+        <v>8411300000</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2623</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4851400000</v>
+        <v>9011400000</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2624</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6651500000</v>
+        <v>10811500000</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-1.11104938614521E-4</v>
       </c>
       <c r="C15">
-        <v>2624</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12051600000</v>
+        <v>11011600000</v>
       </c>
       <c r="B16">
-        <v>-3.7036351178681799E-5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2618</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12251700000</v>
+        <v>11611700000</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2622</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12851800000</v>
+        <v>13411800000</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2622</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>14651900000</v>
+        <v>18811900000</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-7.4072702357363694E-5</v>
       </c>
       <c r="C19">
-        <v>2622</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20052000000</v>
+        <v>19012000000</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2622</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>36252100000</v>
+        <v>19612100000</v>
       </c>
       <c r="B21">
-        <v>-2.4691205609841901E-5</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2618</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>36452200000</v>
+        <v>21412200000</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2621</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>37052300000</v>
+        <v>26812300000</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-7.4072702357363694E-5</v>
       </c>
       <c r="C23">
-        <v>2621</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>38852400000</v>
+        <v>27012400000</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2621</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>44252500000</v>
+        <v>27612500000</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2621</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>60452600000</v>
+        <v>29412600000</v>
       </c>
       <c r="B26">
-        <v>-2.4691205609841901E-5</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>2617</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>60652700000</v>
+        <v>34812700000</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-7.4072702357363694E-5</v>
       </c>
       <c r="C27">
-        <v>2620</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>61252800000</v>
+        <v>35012800000</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2620</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>63052900000</v>
+        <v>35612900000</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>2620</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>68453000000</v>
+        <v>37413000000</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2620</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>84653100000</v>
+        <v>42813100000</v>
       </c>
       <c r="B31">
-        <v>-2.4691205609841901E-5</v>
+        <v>-7.4072702357363694E-5</v>
       </c>
       <c r="C31">
-        <v>2616</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>84853200000</v>
+        <v>43013200000</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>2619</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>85453300000</v>
+        <v>43613300000</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2618</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>87253400000</v>
+        <v>45413400000</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2618</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>92653500000</v>
+        <v>50813500000</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-3.7036351178681799E-5</v>
       </c>
       <c r="C35">
-        <v>2618</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>108853600000</v>
+        <v>51013600000</v>
       </c>
       <c r="B36">
-        <v>-1.23456028049209E-5</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>2617</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>109053700000</v>
+        <v>51613700000</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2618</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>109653800000</v>
+        <v>53413800000</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2618</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>111453900000</v>
+        <v>58813900000</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-3.7036351178681799E-5</v>
       </c>
       <c r="C39">
-        <v>2618</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>116854000000</v>
+        <v>59014000000</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>2618</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>133054100000</v>
+        <v>59614100000</v>
       </c>
       <c r="B41">
-        <v>-1.23456028049209E-5</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>2616</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>133254200000</v>
+        <v>61414200000</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>2617</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>133854300000</v>
+        <v>66814300000</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-3.7036351178681799E-5</v>
       </c>
       <c r="C43">
-        <v>2617</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>135654400000</v>
+        <v>67014400000</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2617</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>141054500000</v>
+        <v>67614500000</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>2617</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>157254600000</v>
+        <v>69414600000</v>
       </c>
       <c r="B46">
-        <v>-1.23456028049209E-5</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>2615</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>157454700000</v>
+        <v>74814700000</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-3.7036351178681799E-5</v>
       </c>
       <c r="C47">
-        <v>2617</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>158054800000</v>
+        <v>75014800000</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>2617</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>159854900000</v>
+        <v>75614900000</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>2617</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>165255000000</v>
+        <v>77415000000</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>2617</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>181455100000</v>
+        <v>82815100000</v>
       </c>
       <c r="B51">
-        <v>-1.23456028049209E-5</v>
+        <v>-3.7036351178681799E-5</v>
       </c>
       <c r="C51">
-        <v>2615</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>181655200000</v>
+        <v>83015200000</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>2616</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>182255300000</v>
+        <v>83615300000</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>2616</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>184055400000</v>
+        <v>85415400000</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>2616</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>189455500000</v>
+        <v>90815500000</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>-3.7036351178681799E-5</v>
       </c>
       <c r="C55">
-        <v>2616</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>205655600000</v>
+        <v>91015600000</v>
       </c>
       <c r="B56">
-        <v>-1.23456028049209E-5</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>2614</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>205855700000</v>
+        <v>91615700000</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2615</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>206455800000</v>
+        <v>93415800000</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>2615</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>208255900000</v>
+        <v>98815900000</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>-3.7036351178681799E-5</v>
       </c>
       <c r="C59">
-        <v>2615</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>213656000000</v>
+        <v>99016000000</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>2615</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>229856100000</v>
+        <v>99616100000</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>2615</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>278456200000</v>
+        <v>101416200000</v>
       </c>
       <c r="B62">
-        <v>-8.2304357398441507E-6</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>2614</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>424256300000</v>
+        <v>106816300000</v>
       </c>
       <c r="B63">
-        <v>-5.4869646865811402E-6</v>
+        <v>-3.7036351178681799E-5</v>
       </c>
       <c r="C63">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>107016400000</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>107616500000</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>109416600000</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>114816700000</v>
+      </c>
+      <c r="B67">
+        <v>-3.7036351178681799E-5</v>
+      </c>
+      <c r="C67">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>115016800000</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>115616900000</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>117417000000</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>122817100000</v>
+      </c>
+      <c r="B71">
+        <v>-3.7036351178681799E-5</v>
+      </c>
+      <c r="C71">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>123017200000</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>123617300000</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>125417400000</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>130817500000</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>147017600000</v>
+      </c>
+      <c r="B76">
+        <v>-2.4691205609841901E-5</v>
+      </c>
+      <c r="C76">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>147217700000</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>147817800000</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>149617900000</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>155018000000</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>171218100000</v>
+      </c>
+      <c r="B81">
+        <v>-2.4691205609841901E-5</v>
+      </c>
+      <c r="C81">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>171418200000</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>172018300000</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>173818400000</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>179218500000</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>195418600000</v>
+      </c>
+      <c r="B86">
+        <v>-2.4691205609841901E-5</v>
+      </c>
+      <c r="C86">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>195618700000</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>196218800000</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>198018900000</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>203419000000</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>219619100000</v>
+      </c>
+      <c r="B91">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C91">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>219819200000</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>220419300000</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>222219400000</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>227619500000</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>243819600000</v>
+      </c>
+      <c r="B96">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C96">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>244019700000</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>244619800000</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>246419900000</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>251820000000</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>268020100000</v>
+      </c>
+      <c r="B101">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C101">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>268220200000</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>268820300000</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>270620400000</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>276020500000</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>292220600000</v>
+      </c>
+      <c r="B106">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C106">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>292420700000</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>293020800000</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>294820900000</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>300221000000</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>316421100000</v>
+      </c>
+      <c r="B111">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C111">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>316621200000</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>317221300000</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>319021400000</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>324421500000</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>340621600000</v>
+      </c>
+      <c r="B116">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C116">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>340821700000</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>341421800000</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>343221900000</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>348622000000</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>364822100000</v>
+      </c>
+      <c r="B121">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C121">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>365022200000</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>365622300000</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>367422400000</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>372822500000</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>389022600000</v>
+      </c>
+      <c r="B126">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C126">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>389222700000</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>389822800000</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>391622900000</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>397023000000</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>413223100000</v>
+      </c>
+      <c r="B131">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C131">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>413423200000</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>414023300000</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>415823400000</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>421223500000</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>437423600000</v>
+      </c>
+      <c r="B136">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C136">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>437623700000</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>438223800000</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>440023900000</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>445424000000</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>461624100000</v>
+      </c>
+      <c r="B141">
+        <v>-1.23456028049209E-5</v>
+      </c>
+      <c r="C141">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>461824200000</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>462424300000</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>464224400000</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>469624500000</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>485824600000</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>534424700000</v>
+      </c>
+      <c r="B147">
+        <v>-8.2304357398441507E-6</v>
+      </c>
+      <c r="C147">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>680224800000</v>
+      </c>
+      <c r="B148">
+        <v>-9.6021882015170001E-6</v>
+      </c>
+      <c r="C148">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1117624900000</v>
+      </c>
+      <c r="B149">
+        <v>-6.40146172806087E-6</v>
+      </c>
+      <c r="C149">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2429825000000</v>
+      </c>
+      <c r="B150">
+        <v>-6.5538784824052296E-6</v>
+      </c>
+      <c r="C150">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>6366425100000</v>
+      </c>
+      <c r="B151">
+        <v>-6.5538788153767501E-6</v>
+      </c>
+      <c r="C151">
         <v>2614</v>
       </c>
     </row>
